--- a/data/hotels_by_city/Dallas/Dallas_shard_787.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_787.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,189 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12071968-r562819013-WoodSpring_Suites_Dallas_North-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>56463</t>
+  </si>
+  <si>
+    <t>12071968</t>
+  </si>
+  <si>
+    <t>562819013</t>
+  </si>
+  <si>
+    <t>02/25/2018</t>
+  </si>
+  <si>
+    <t>One night get away</t>
+  </si>
+  <si>
+    <t>This hotel is just basic if you want somewhere to sleep for maybe one night. No irons or ironing board, Wi-Fi was not free, it asked for a card to be charged. But overall clean and quiet and Wal-Mart was close by. I did like that you have a full size refrigerator and microwave.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>sjames280, Manager at WoodSpring Suites Dallas North, responded to this reviewResponded February 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is just basic if you want somewhere to sleep for maybe one night. No irons or ironing board, Wi-Fi was not free, it asked for a card to be charged. But overall clean and quiet and Wal-Mart was close by. I did like that you have a full size refrigerator and microwave.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12071968-r558719507-WoodSpring_Suites_Dallas_North-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>558719507</t>
+  </si>
+  <si>
+    <t>02/05/2018</t>
+  </si>
+  <si>
+    <t>The most basic extended stay</t>
+  </si>
+  <si>
+    <t>Kitchenette ✔This was the most basic extended stay we've stayed at before.  No business center.  No breakfast. No iron or ironing boards in the room, we has to ask the front desk and check it out.  No pens or notepads for the room.  And since we didn't stay for a week, We didn't get housekeeping servies; we were told that if we want to change the bedding or get new towels, We would need to go to the front desk.  The elevator always had a funk smell to it.  On the plus side, It's walking distance to Wal-Mart.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>sjames280, Manager at WoodSpring Suites Dallas North, responded to this reviewResponded February 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2018</t>
+  </si>
+  <si>
+    <t>Kitchenette ✔This was the most basic extended stay we've stayed at before.  No business center.  No breakfast. No iron or ironing boards in the room, we has to ask the front desk and check it out.  No pens or notepads for the room.  And since we didn't stay for a week, We didn't get housekeeping servies; we were told that if we want to change the bedding or get new towels, We would need to go to the front desk.  The elevator always had a funk smell to it.  On the plus side, It's walking distance to Wal-Mart.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12071968-r551646355-WoodSpring_Suites_Dallas_North-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>551646355</t>
+  </si>
+  <si>
+    <t>01/04/2018</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>Arrived here immediately after Christmas for a two-day stay. First blunder was that I was given a room that had NOT been cleaned and the door did not lock at all. Reported this to the front desk and I was immediately swithed to another one. Much better. The property sits right next to the George Bush Turnpike and if you get a room facing the highway, the noise may bug you. I got a room facing Mapleshade lane, which is the road in between SAMS club and Walmart on Coit Road. The street itself is a lot less traveled and the property feels a bit secluded.My room was good and you can tell that this is new property. Had a refrigerator, full sized, microwave, dishwasher, range, etc, all the necessities for an extended stay. I cant complain there!The only thing thing I would say was a bad thing was that the 2nd floor hallway had an overpowering smell of Indian spices and curry. I had a cold, but the smell was so powerful, it unblocked my sinuses. The next day, it smelled like bleach and curry.Breakfast is not served and the front desk shuts at 11pm, but there's a phone to call hotel staff at any time.The lobby was also pretty small.Overall, it was a good stay for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>sjames280, Manager at WoodSpring Suites Dallas North, responded to this reviewResponded January 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2018</t>
+  </si>
+  <si>
+    <t>Arrived here immediately after Christmas for a two-day stay. First blunder was that I was given a room that had NOT been cleaned and the door did not lock at all. Reported this to the front desk and I was immediately swithed to another one. Much better. The property sits right next to the George Bush Turnpike and if you get a room facing the highway, the noise may bug you. I got a room facing Mapleshade lane, which is the road in between SAMS club and Walmart on Coit Road. The street itself is a lot less traveled and the property feels a bit secluded.My room was good and you can tell that this is new property. Had a refrigerator, full sized, microwave, dishwasher, range, etc, all the necessities for an extended stay. I cant complain there!The only thing thing I would say was a bad thing was that the 2nd floor hallway had an overpowering smell of Indian spices and curry. I had a cold, but the smell was so powerful, it unblocked my sinuses. The next day, it smelled like bleach and curry.Breakfast is not served and the front desk shuts at 11pm, but there's a phone to call hotel staff at any time.The lobby was also pretty small.Overall, it was a good stay for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12071968-r503710624-WoodSpring_Suites_Dallas_North-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>503710624</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Not Impressed!!</t>
+  </si>
+  <si>
+    <t>To start with when we got to the facility we had to wait to check in for 15 min or so. We got there at 4:30 so I would have expected that there be someone manning the desk. Evidently they had one person on staff and he was showing some other people there establishment. By the time he got back there were three families crowded in the small lobby to check in. It was hot in every part of the facility, including our room. It took awhile to get the room cooled down but once it was cooled it felt very nice. The room was cleaned for the most part but there were some signs of improper cleaning. Make sure to reserve your hotel on Hotel Tonight as it is @ $35 cheaper to reserve the room from them then anywhere else. I found out about the App and lower price from the guy checking me out after I paid the higher price. I'd think twice about staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>sjames280, Manager at WoodSpring Suites Dallas North, responded to this reviewResponded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>To start with when we got to the facility we had to wait to check in for 15 min or so. We got there at 4:30 so I would have expected that there be someone manning the desk. Evidently they had one person on staff and he was showing some other people there establishment. By the time he got back there were three families crowded in the small lobby to check in. It was hot in every part of the facility, including our room. It took awhile to get the room cooled down but once it was cooled it felt very nice. The room was cleaned for the most part but there were some signs of improper cleaning. Make sure to reserve your hotel on Hotel Tonight as it is @ $35 cheaper to reserve the room from them then anywhere else. I found out about the App and lower price from the guy checking me out after I paid the higher price. I'd think twice about staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12071968-r496697044-WoodSpring_Suites_Dallas_North-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>496697044</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>Nice Suites but the neighbors are concerning.</t>
+  </si>
+  <si>
+    <t>Very nice new facility and well-equipped.  Normally used for weekly rentals but nightly is OK.  Some residents who stay longer 'hang out' around the doorways and parking lot and it's a bit unsettling until you convince yourself they are your neighbors, not deadbeats looking for trouble.  You can hear the neighbors more than  we expected and the nearby turnpike can be heard through the south side windows.  You can turn on the fan to run continuously.  Web site said there is breakfast but we didn't see any and we didn't ask. We chose it to get queen beds so it is a better value for the neighborhood.Neighbors upstairs were training their dancing horses but they stopped at midnight so we got enough sleep.  Lots of outlets to charge your toys but it looks like Wi-Fi is only free for one day.  Even though it's a well-equipped "suite", there are no pots, pans, bowls or silverware.  You could buy your own up the street at Walmart.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>sjames280, Manager at WoodSpring Suites Dallas North, responded to this reviewResponded June 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2017</t>
+  </si>
+  <si>
+    <t>Very nice new facility and well-equipped.  Normally used for weekly rentals but nightly is OK.  Some residents who stay longer 'hang out' around the doorways and parking lot and it's a bit unsettling until you convince yourself they are your neighbors, not deadbeats looking for trouble.  You can hear the neighbors more than  we expected and the nearby turnpike can be heard through the south side windows.  You can turn on the fan to run continuously.  Web site said there is breakfast but we didn't see any and we didn't ask. We chose it to get queen beds so it is a better value for the neighborhood.Neighbors upstairs were training their dancing horses but they stopped at midnight so we got enough sleep.  Lots of outlets to charge your toys but it looks like Wi-Fi is only free for one day.  Even though it's a well-equipped "suite", there are no pots, pans, bowls or silverware.  You could buy your own up the street at Walmart.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12071968-r475155618-WoodSpring_Suites_Dallas_North-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>475155618</t>
+  </si>
+  <si>
+    <t>04/12/2017</t>
+  </si>
+  <si>
+    <t>Best deal in North Dallas</t>
+  </si>
+  <si>
+    <t>Love this new Signature brand. Everything was perfect. From location, comfort, decor and convenience.  It was all I could ask for in an extended stay property. Now I'm on my way to another WoodSpring property in Colorado. I'm spoiled with the upscale version. Hopefully they will be building more property's like this one across America.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2017</t>
+  </si>
+  <si>
+    <t>Love this new Signature brand. Everything was perfect. From location, comfort, decor and convenience.  It was all I could ask for in an extended stay property. Now I'm on my way to another WoodSpring property in Colorado. I'm spoiled with the upscale version. Hopefully they will be building more property's like this one across America.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +831,384 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>66152</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>66152</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>66152</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>66152</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>66152</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>92</v>
+      </c>
+      <c r="X6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>66152</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>102</v>
+      </c>
+      <c r="X7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_787.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_787.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>D H</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>This hotel is just basic if you want somewhere to sleep for maybe one night. No irons or ironing board, Wi-Fi was not free, it asked for a card to be charged. But overall clean and quiet and Wal-Mart was close by. I did like that you have a full size refrigerator and microwave.More</t>
   </si>
   <si>
+    <t>dogloveswater</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12071968-r558719507-WoodSpring_Suites_Dallas_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>Kitchenette ✔This was the most basic extended stay we've stayed at before.  No business center.  No breakfast. No iron or ironing boards in the room, we has to ask the front desk and check it out.  No pens or notepads for the room.  And since we didn't stay for a week, We didn't get housekeeping servies; we were told that if we want to change the bedding or get new towels, We would need to go to the front desk.  The elevator always had a funk smell to it.  On the plus side, It's walking distance to Wal-Mart.More</t>
   </si>
   <si>
+    <t>Delita_chan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12071968-r551646355-WoodSpring_Suites_Dallas_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -249,6 +258,9 @@
     <t>Arrived here immediately after Christmas for a two-day stay. First blunder was that I was given a room that had NOT been cleaned and the door did not lock at all. Reported this to the front desk and I was immediately swithed to another one. Much better. The property sits right next to the George Bush Turnpike and if you get a room facing the highway, the noise may bug you. I got a room facing Mapleshade lane, which is the road in between SAMS club and Walmart on Coit Road. The street itself is a lot less traveled and the property feels a bit secluded.My room was good and you can tell that this is new property. Had a refrigerator, full sized, microwave, dishwasher, range, etc, all the necessities for an extended stay. I cant complain there!The only thing thing I would say was a bad thing was that the 2nd floor hallway had an overpowering smell of Indian spices and curry. I had a cold, but the smell was so powerful, it unblocked my sinuses. The next day, it smelled like bleach and curry.Breakfast is not served and the front desk shuts at 11pm, but there's a phone to call hotel staff at any time.The lobby was also pretty small.Overall, it was a good stay for the price.More</t>
   </si>
   <si>
+    <t>Arobertson9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12071968-r503710624-WoodSpring_Suites_Dallas_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -276,6 +288,9 @@
     <t>To start with when we got to the facility we had to wait to check in for 15 min or so. We got there at 4:30 so I would have expected that there be someone manning the desk. Evidently they had one person on staff and he was showing some other people there establishment. By the time he got back there were three families crowded in the small lobby to check in. It was hot in every part of the facility, including our room. It took awhile to get the room cooled down but once it was cooled it felt very nice. The room was cleaned for the most part but there were some signs of improper cleaning. Make sure to reserve your hotel on Hotel Tonight as it is @ $35 cheaper to reserve the room from them then anywhere else. I found out about the App and lower price from the guy checking me out after I paid the higher price. I'd think twice about staying here.More</t>
   </si>
   <si>
+    <t>BillRadio</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12071968-r496697044-WoodSpring_Suites_Dallas_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -301,6 +316,9 @@
   </si>
   <si>
     <t>Very nice new facility and well-equipped.  Normally used for weekly rentals but nightly is OK.  Some residents who stay longer 'hang out' around the doorways and parking lot and it's a bit unsettling until you convince yourself they are your neighbors, not deadbeats looking for trouble.  You can hear the neighbors more than  we expected and the nearby turnpike can be heard through the south side windows.  You can turn on the fan to run continuously.  Web site said there is breakfast but we didn't see any and we didn't ask. We chose it to get queen beds so it is a better value for the neighborhood.Neighbors upstairs were training their dancing horses but they stopped at midnight so we got enough sleep.  Lots of outlets to charge your toys but it looks like Wi-Fi is only free for one day.  Even though it's a well-equipped "suite", there are no pots, pans, bowls or silverware.  You could buy your own up the street at Walmart.More</t>
+  </si>
+  <si>
+    <t>Billy R Mr T</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12071968-r475155618-WoodSpring_Suites_Dallas_North-Plano_Texas.html</t>
@@ -835,43 +853,47 @@
       <c r="A2" t="n">
         <v>66152</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>17008</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -883,56 +905,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>66152</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>182594</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -944,56 +970,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>66152</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>182595</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1011,56 +1041,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>66152</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>182596</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1072,56 +1106,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>66152</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>182597</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -1139,56 +1177,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="X6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Y6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>66152</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>129786</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="O7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1200,13 +1242,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="X7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="Y7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_787.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_787.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="175">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,108 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>D H</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12071968-r606348427-WoodSpring_Suites_Dallas_North-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>56463</t>
+  </si>
+  <si>
+    <t>12071968</t>
+  </si>
+  <si>
+    <t>606348427</t>
+  </si>
+  <si>
+    <t>08/14/2018</t>
+  </si>
+  <si>
+    <t>Very Relaxing and Friendly environment</t>
+  </si>
+  <si>
+    <t>I have been staying in this location since July, from the 1st day until now the staff members are the epitome of great customer service that Include the General Manager, Assistant Manager, Front desk clerk and cleaning crew. I have enjoyed my stay and plan on been here for a while until my Assignment is completed.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>sjames280, Manager at WoodSpring Suites Dallas North, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>I have been staying in this location since July, from the 1st day until now the staff members are the epitome of great customer service that Include the General Manager, Assistant Manager, Front desk clerk and cleaning crew. I have enjoyed my stay and plan on been here for a while until my Assignment is completed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12071968-r588555499-WoodSpring_Suites_Dallas_North-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>588555499</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>top of the notch for extended says</t>
+  </si>
+  <si>
+    <t>hotel is new and the manager Tim is excellent and cares about this hotel.  No breakfast in the morning and the hotel is very fresh and very clean.  You can exchange sheets and towels whenever you want.  Large laundry facility and vending machines and all take credit cards and debit cards.  Right down the street from Walmart and Sams club and restaurants.  The room has 2 burners, large refrigerator but small amount of storage.  The beds are amazing.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>sjames280, Manager at WoodSpring Suites Dallas North, responded to this reviewResponded June 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2018</t>
+  </si>
+  <si>
+    <t>hotel is new and the manager Tim is excellent and cares about this hotel.  No breakfast in the morning and the hotel is very fresh and very clean.  You can exchange sheets and towels whenever you want.  Large laundry facility and vending machines and all take credit cards and debit cards.  Right down the street from Walmart and Sams club and restaurants.  The room has 2 burners, large refrigerator but small amount of storage.  The beds are amazing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12071968-r575840968-WoodSpring_Suites_Dallas_North-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>575840968</t>
+  </si>
+  <si>
+    <t>04/26/2018</t>
+  </si>
+  <si>
+    <t>Super Clean Hotel!</t>
+  </si>
+  <si>
+    <t>This hotel was really clean! We loved how there was a kitchen with a dishwasher in the room as well. We had solid sleep for 2 days so the walls weren't too thin. Plus, the hotel is in a great location! It's basically a quarter mile from a walmart and a sam's club. I'd stay here again for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>sjames280, Manager at WoodSpring Suites Dallas North, responded to this reviewResponded April 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2018</t>
+  </si>
+  <si>
+    <t>This hotel was really clean! We loved how there was a kitchen with a dishwasher in the room as well. We had solid sleep for 2 days so the walls weren't too thin. Plus, the hotel is in a great location! It's basically a quarter mile from a walmart and a sam's club. I'd stay here again for sure.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12071968-r562819013-WoodSpring_Suites_Dallas_North-Plano_Texas.html</t>
   </si>
   <si>
-    <t>56463</t>
-  </si>
-  <si>
-    <t>12071968</t>
-  </si>
-  <si>
     <t>562819013</t>
   </si>
   <si>
@@ -180,9 +267,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>sjames280, Manager at WoodSpring Suites Dallas North, responded to this reviewResponded February 27, 2018</t>
   </si>
   <si>
@@ -192,9 +276,6 @@
     <t>This hotel is just basic if you want somewhere to sleep for maybe one night. No irons or ironing board, Wi-Fi was not free, it asked for a card to be charged. But overall clean and quiet and Wal-Mart was close by. I did like that you have a full size refrigerator and microwave.More</t>
   </si>
   <si>
-    <t>dogloveswater</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12071968-r558719507-WoodSpring_Suites_Dallas_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -207,7 +288,7 @@
     <t>The most basic extended stay</t>
   </si>
   <si>
-    <t>Kitchenette ✔This was the most basic extended stay we've stayed at before.  No business center.  No breakfast. No iron or ironing boards in the room, we has to ask the front desk and check it out.  No pens or notepads for the room.  And since we didn't stay for a week, We didn't get housekeeping servies; we were told that if we want to change the bedding or get new towels, We would need to go to the front desk.  The elevator always had a funk smell to it.  On the plus side, It's walking distance to Wal-Mart.MoreShow less</t>
+    <t>Kitchenette This was the most basic extended stay we've stayed at before.  No business center.  No breakfast. No iron or ironing boards in the room, we has to ask the front desk and check it out.  No pens or notepads for the room.  And since we didn't stay for a week, We didn't get housekeeping servies; we were told that if we want to change the bedding or get new towels, We would need to go to the front desk.  The elevator always had a funk smell to it.  On the plus side, It's walking distance to Wal-Mart.MoreShow less</t>
   </si>
   <si>
     <t>January 2018</t>
@@ -222,10 +303,7 @@
     <t>Responded February 9, 2018</t>
   </si>
   <si>
-    <t>Kitchenette ✔This was the most basic extended stay we've stayed at before.  No business center.  No breakfast. No iron or ironing boards in the room, we has to ask the front desk and check it out.  No pens or notepads for the room.  And since we didn't stay for a week, We didn't get housekeeping servies; we were told that if we want to change the bedding or get new towels, We would need to go to the front desk.  The elevator always had a funk smell to it.  On the plus side, It's walking distance to Wal-Mart.More</t>
-  </si>
-  <si>
-    <t>Delita_chan</t>
+    <t>Kitchenette This was the most basic extended stay we've stayed at before.  No business center.  No breakfast. No iron or ironing boards in the room, we has to ask the front desk and check it out.  No pens or notepads for the room.  And since we didn't stay for a week, We didn't get housekeeping servies; we were told that if we want to change the bedding or get new towels, We would need to go to the front desk.  The elevator always had a funk smell to it.  On the plus side, It's walking distance to Wal-Mart.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12071968-r551646355-WoodSpring_Suites_Dallas_North-Plano_Texas.html</t>
@@ -246,9 +324,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>sjames280, Manager at WoodSpring Suites Dallas North, responded to this reviewResponded January 7, 2018</t>
   </si>
   <si>
@@ -258,7 +333,82 @@
     <t>Arrived here immediately after Christmas for a two-day stay. First blunder was that I was given a room that had NOT been cleaned and the door did not lock at all. Reported this to the front desk and I was immediately swithed to another one. Much better. The property sits right next to the George Bush Turnpike and if you get a room facing the highway, the noise may bug you. I got a room facing Mapleshade lane, which is the road in between SAMS club and Walmart on Coit Road. The street itself is a lot less traveled and the property feels a bit secluded.My room was good and you can tell that this is new property. Had a refrigerator, full sized, microwave, dishwasher, range, etc, all the necessities for an extended stay. I cant complain there!The only thing thing I would say was a bad thing was that the 2nd floor hallway had an overpowering smell of Indian spices and curry. I had a cold, but the smell was so powerful, it unblocked my sinuses. The next day, it smelled like bleach and curry.Breakfast is not served and the front desk shuts at 11pm, but there's a phone to call hotel staff at any time.The lobby was also pretty small.Overall, it was a good stay for the price.More</t>
   </si>
   <si>
-    <t>Arobertson9</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12071968-r551349506-WoodSpring_Suites_Dallas_North-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>551349506</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t>The standard in long term stay</t>
+  </si>
+  <si>
+    <t>Management is first rate and cleaning staff is the greatest. Most accommodating.  The rooms, location and are the best in the area. The rates are highly competitive. It's like having a personal apartment away from home. Highly recommended. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>sjames280, Manager at WoodSpring Suites Dallas North, responded to this reviewResponded January 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2018</t>
+  </si>
+  <si>
+    <t>Management is first rate and cleaning staff is the greatest. Most accommodating.  The rooms, location and are the best in the area. The rates are highly competitive. It's like having a personal apartment away from home. Highly recommended. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12071968-r532062404-WoodSpring_Suites_Dallas_North-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>532062404</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>Excellent Service long stay</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for seven weeks while our son was attending school in Dallas. I especially liked how nice and accommodating the staff was. We had a few issues, but the staff took care of them right away. I like that they do the payments weekly so that they don't tie up your money. The fact that you stopped paying tax after a month helped a lot. The manager,Tim, took care of any issue immediately. It is located across the street from the Walmart and it is located near a lot of restaurants.The things we didn't like had nothing to do with staff, but how it was built. We had to go out and buy all our cookware and dishes, as well as hangers and other things. I have been informed since that they are going to provide that. The walls are thin. I wish they had a couple of picnic tables to eat outside. There is very little space in the room to eat a meal unless you sit on the floor or bed. Being able sit outside would be nice. They need more outlets in the main area for people wanting to plug in their phones, computers and tablets.All in all, we would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>sjames280, Manager at WoodSpring Suites Dallas North, responded to this reviewResponded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2017</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for seven weeks while our son was attending school in Dallas. I especially liked how nice and accommodating the staff was. We had a few issues, but the staff took care of them right away. I like that they do the payments weekly so that they don't tie up your money. The fact that you stopped paying tax after a month helped a lot. The manager,Tim, took care of any issue immediately. It is located across the street from the Walmart and it is located near a lot of restaurants.The things we didn't like had nothing to do with staff, but how it was built. We had to go out and buy all our cookware and dishes, as well as hangers and other things. I have been informed since that they are going to provide that. The walls are thin. I wish they had a couple of picnic tables to eat outside. There is very little space in the room to eat a meal unless you sit on the floor or bed. Being able sit outside would be nice. They need more outlets in the main area for people wanting to plug in their phones, computers and tablets.All in all, we would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12071968-r528742273-WoodSpring_Suites_Dallas_North-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>528742273</t>
+  </si>
+  <si>
+    <t>10/01/2017</t>
+  </si>
+  <si>
+    <t>Just ok</t>
+  </si>
+  <si>
+    <t>Needed a last minute place to stay before a Friday meeting that I was having in the area. Hotel was a new &amp; clean, and the bed was comfortable. Unfortunately the cons outweigh the pros. Safety was a concern, and I felt the property was understaffed. The walls are somewhat thin, and you can hear your neighbors and their pets. There was no coffee maker, hangers, or anything in the kitchenette. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>sjames280, Manager at WoodSpring Suites Dallas North, responded to this reviewResponded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Needed a last minute place to stay before a Friday meeting that I was having in the area. Hotel was a new &amp; clean, and the bed was comfortable. Unfortunately the cons outweigh the pros. Safety was a concern, and I felt the property was understaffed. The walls are somewhat thin, and you can hear your neighbors and their pets. There was no coffee maker, hangers, or anything in the kitchenette. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12071968-r503710624-WoodSpring_Suites_Dallas_North-Plano_Texas.html</t>
@@ -288,9 +438,6 @@
     <t>To start with when we got to the facility we had to wait to check in for 15 min or so. We got there at 4:30 so I would have expected that there be someone manning the desk. Evidently they had one person on staff and he was showing some other people there establishment. By the time he got back there were three families crowded in the small lobby to check in. It was hot in every part of the facility, including our room. It took awhile to get the room cooled down but once it was cooled it felt very nice. The room was cleaned for the most part but there were some signs of improper cleaning. Make sure to reserve your hotel on Hotel Tonight as it is @ $35 cheaper to reserve the room from them then anywhere else. I found out about the App and lower price from the guy checking me out after I paid the higher price. I'd think twice about staying here.More</t>
   </si>
   <si>
-    <t>BillRadio</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12071968-r496697044-WoodSpring_Suites_Dallas_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -318,9 +465,6 @@
     <t>Very nice new facility and well-equipped.  Normally used for weekly rentals but nightly is OK.  Some residents who stay longer 'hang out' around the doorways and parking lot and it's a bit unsettling until you convince yourself they are your neighbors, not deadbeats looking for trouble.  You can hear the neighbors more than  we expected and the nearby turnpike can be heard through the south side windows.  You can turn on the fan to run continuously.  Web site said there is breakfast but we didn't see any and we didn't ask. We chose it to get queen beds so it is a better value for the neighborhood.Neighbors upstairs were training their dancing horses but they stopped at midnight so we got enough sleep.  Lots of outlets to charge your toys but it looks like Wi-Fi is only free for one day.  Even though it's a well-equipped "suite", there are no pots, pans, bowls or silverware.  You could buy your own up the street at Walmart.More</t>
   </si>
   <si>
-    <t>Billy R Mr T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12071968-r475155618-WoodSpring_Suites_Dallas_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -339,9 +483,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Management response:Responded April 16, 2017</t>
   </si>
   <si>
@@ -349,6 +490,57 @@
   </si>
   <si>
     <t>Love this new Signature brand. Everything was perfect. From location, comfort, decor and convenience.  It was all I could ask for in an extended stay property. Now I'm on my way to another WoodSpring property in Colorado. I'm spoiled with the upscale version. Hopefully they will be building more property's like this one across America.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12071968-r471962140-WoodSpring_Suites_Dallas_North-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>471962140</t>
+  </si>
+  <si>
+    <t>04/01/2017</t>
+  </si>
+  <si>
+    <t>Brand New Property</t>
+  </si>
+  <si>
+    <t>Wow. What a great find. Good location for work travel. Brand New Property. Charles at the front desk is professional, friendly and helpful. Small gym, laundry room on site. Room has full size frig, microwave and stove top. I will definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2017</t>
+  </si>
+  <si>
+    <t>Wow. What a great find. Good location for work travel. Brand New Property. Charles at the front desk is professional, friendly and helpful. Small gym, laundry room on site. Room has full size frig, microwave and stove top. I will definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d12071968-r468028918-WoodSpring_Suites_Dallas_North-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>468028918</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>Woodsprings Suites just recently opened. We stayed a couple of nights and it was very comfortable. It's a bare-bones extended stay but clean, great staff and quiet. The beds were comfy. They allow pets and are very pet-friendly! Management was quite helpful. Enjoyed our stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2017</t>
+  </si>
+  <si>
+    <t>Woodsprings Suites just recently opened. We stayed a couple of nights and it was very comfortable. It's a bare-bones extended stay but clean, great staff and quiet. The beds were comfy. They allow pets and are very pet-friendly! Management was quite helpful. Enjoyed our stay!More</t>
   </si>
 </sst>
 </file>
@@ -853,248 +1045,240 @@
       <c r="A2" t="n">
         <v>66152</v>
       </c>
-      <c r="B2" t="n">
-        <v>17008</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>66152</v>
       </c>
-      <c r="B3" t="n">
-        <v>182594</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>63</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
         <v>66</v>
-      </c>
-      <c r="X3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>66152</v>
       </c>
-      <c r="B4" t="n">
-        <v>182595</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
         <v>70</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>71</v>
-      </c>
-      <c r="J4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" t="s">
-        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="n">
+        <v>73</v>
+      </c>
+      <c r="P4" t="n">
         <v>4</v>
       </c>
-      <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>66152</v>
       </c>
-      <c r="B5" t="n">
-        <v>182596</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
         <v>81</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
         <v>82</v>
       </c>
-      <c r="J5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>86</v>
-      </c>
       <c r="O5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1106,149 +1290,639 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>66152</v>
       </c>
-      <c r="B6" t="n">
-        <v>182597</v>
-      </c>
-      <c r="C6" t="s">
-        <v>90</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
         <v>91</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="O6" t="s">
         <v>92</v>
       </c>
-      <c r="J6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" t="s">
-        <v>94</v>
-      </c>
-      <c r="L6" t="s">
-        <v>95</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>96</v>
-      </c>
-      <c r="O6" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="X6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>66152</v>
       </c>
-      <c r="B7" t="n">
-        <v>129786</v>
-      </c>
-      <c r="C7" t="s">
-        <v>100</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>101</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
-        <v>102</v>
-      </c>
-      <c r="J7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>106</v>
-      </c>
       <c r="O7" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
       <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
+        <v>102</v>
+      </c>
+      <c r="X7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>66152</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" t="s">
         <v>108</v>
       </c>
-      <c r="X7" t="s">
+      <c r="L8" t="s">
         <v>109</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
         <v>110</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>111</v>
+      </c>
+      <c r="X8" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>66152</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" t="s">
+        <v>118</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>119</v>
+      </c>
+      <c r="X9" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>66152</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" t="s">
+        <v>126</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>127</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>128</v>
+      </c>
+      <c r="X10" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>66152</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>132</v>
+      </c>
+      <c r="J11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" t="s">
+        <v>134</v>
+      </c>
+      <c r="L11" t="s">
+        <v>135</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>136</v>
+      </c>
+      <c r="O11" t="s">
+        <v>92</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>137</v>
+      </c>
+      <c r="X11" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>66152</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12" t="s">
+        <v>142</v>
+      </c>
+      <c r="K12" t="s">
+        <v>143</v>
+      </c>
+      <c r="L12" t="s">
+        <v>144</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>145</v>
+      </c>
+      <c r="O12" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>146</v>
+      </c>
+      <c r="X12" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>66152</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>150</v>
+      </c>
+      <c r="J13" t="s">
+        <v>151</v>
+      </c>
+      <c r="K13" t="s">
+        <v>152</v>
+      </c>
+      <c r="L13" t="s">
+        <v>153</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>154</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>155</v>
+      </c>
+      <c r="X13" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>66152</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>159</v>
+      </c>
+      <c r="J14" t="s">
+        <v>160</v>
+      </c>
+      <c r="K14" t="s">
+        <v>161</v>
+      </c>
+      <c r="L14" t="s">
+        <v>162</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>154</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>163</v>
+      </c>
+      <c r="X14" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>66152</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>167</v>
+      </c>
+      <c r="J15" t="s">
+        <v>168</v>
+      </c>
+      <c r="K15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L15" t="s">
+        <v>170</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>171</v>
+      </c>
+      <c r="O15" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>172</v>
+      </c>
+      <c r="X15" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
